--- a/SHArC/SHArea/2100_sample_sharea_chsp.xlsx
+++ b/SHArC/SHArea/2100_sample_sharea_chsp.xlsx
@@ -1809,6 +1809,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2345,7 +2346,7 @@
   <dimension ref="B1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4476,7 +4477,7 @@
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G197" s="14" t="str">
-        <f t="shared" ref="G197:G228" si="6">IF(NOT(ISBLANK(F197)),(E197-E196)/100*F197,"")</f>
+        <f t="shared" ref="G197:G200" si="6">IF(NOT(ISBLANK(F197)),(E197-E196)/100*F197,"")</f>
         <v/>
       </c>
     </row>
